--- a/trend_results/Rivers/KaitokeatVectorGasLine_807b3eac70.xlsx
+++ b/trend_results/Rivers/KaitokeatVectorGasLine_807b3eac70.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.401293674317076</v>
+        <v>0.598706325682924</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.748250222283758</v>
+        <v>0.251749777716242</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">

--- a/trend_results/Rivers/KaitokeatVectorGasLine_807b3eac70.xlsx
+++ b/trend_results/Rivers/KaitokeatVectorGasLine_807b3eac70.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,13 +573,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.896561841526004</v>
+        <v>0.138093282934764</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.88</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -588,16 +588,16 @@
         <v>0.26</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0260308998845851</v>
+        <v>-0.0199046321525886</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.008891773793776699</v>
+        <v>-0.0492410937500995</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0554832242611714</v>
+        <v>0.0100026636955602</v>
       </c>
       <c r="N2" t="n">
-        <v>10.0118845709943</v>
+        <v>-7.6556277509956</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.598706325682924</v>
+        <v>0.714906112454826</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.943396226415094</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>9.35</v>
+        <v>9.49</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0141070870971341</v>
+        <v>0.058575061029067</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.180309528391419</v>
+        <v>-0.132776270173852</v>
       </c>
       <c r="M3" t="n">
-        <v>0.252720141317156</v>
+        <v>0.102789831370291</v>
       </c>
       <c r="N3" t="n">
-        <v>0.150877936867744</v>
+        <v>0.617229304837376</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.904054473398566</v>
+        <v>0.25555805922537</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.716981132075472</v>
+        <v>0.7037037037037041</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.042</v>
+        <v>0.0375</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0025103104641232</v>
+        <v>0.0011476826394344</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0058480159760852</v>
+        <v>-0.0015333743789827</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0005519196933141</v>
+        <v>0.0039443553892329</v>
       </c>
       <c r="N4" t="n">
-        <v>-5.97692967648386</v>
+        <v>3.06048703849175</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.971804145256465</v>
+        <v>0.938354201000995</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0222222222222222</v>
+        <v>0.0185185185185185</v>
       </c>
       <c r="H5" t="n">
-        <v>0.888888888888889</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>293</v>
+        <v>250</v>
       </c>
       <c r="K5" t="n">
-        <v>-41.4608108108108</v>
+        <v>-35.9677796658383</v>
       </c>
       <c r="L5" t="n">
-        <v>-140.600716443201</v>
+        <v>-56.2739561081485</v>
       </c>
       <c r="M5" t="n">
-        <v>-23.8019191210778</v>
+        <v>-4.17558282940239</v>
       </c>
       <c r="N5" t="n">
-        <v>-14.1504473757033</v>
+        <v>-14.3871118663353</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -933,35 +933,35 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.124616446660602</v>
+        <v>0.0346490789736528</v>
       </c>
       <c r="G6" t="n">
-        <v>0.365384615384615</v>
+        <v>0.351851851851852</v>
       </c>
       <c r="H6" t="n">
-        <v>0.692307692307692</v>
+        <v>0.7037037037037041</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>0.014935488315607</v>
+        <v>0.0175021742902809</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0003607843524708</v>
+        <v>0.0021980669161238</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0044761421557337</v>
+        <v>0.0055731148768861</v>
       </c>
       <c r="N6" t="n">
-        <v>2.41561805578118</v>
+        <v>12.5588220050147</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1020,7 +1020,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1028,31 +1028,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.28729258557965</v>
+        <v>0.0347981289882045</v>
       </c>
       <c r="G7" t="n">
-        <v>0.132075471698113</v>
+        <v>0.12962962962963</v>
       </c>
       <c r="H7" t="n">
-        <v>0.584905660377358</v>
+        <v>0.592592592592593</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.013</v>
+        <v>0.0135</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0006575442135259</v>
+        <v>0.001126289536387</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0017159523098047</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0027462564257385</v>
+        <v>0.0025038627113964</v>
       </c>
       <c r="N7" t="n">
-        <v>5.05803241173819</v>
+        <v>8.34288545471856</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1115,35 +1115,35 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.337392249324502</v>
+        <v>0.144243731661745</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0943396226415094</v>
+        <v>0.0925925925925926</v>
       </c>
       <c r="H8" t="n">
-        <v>0.905660377358491</v>
+        <v>0.907407407407407</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.366</v>
+        <v>0.353</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0035415319974143</v>
+        <v>0.0249506188613413</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0564597807889512</v>
+        <v>-0.0297835040349404</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0396851723899489</v>
+        <v>0.0719089531463827</v>
       </c>
       <c r="N8" t="n">
-        <v>0.96763169328261</v>
+        <v>7.06816398338279</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.251749777716242</v>
+        <v>0.372395520847622</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.792452830188679</v>
+        <v>0.759259259259259</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.72</v>
+        <v>7.705</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0242029383798979</v>
+        <v>-0.0200366980932163</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0687510225479859</v>
+        <v>-0.07189080221147209</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0345740506522981</v>
+        <v>0.0300249850375088</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.31350956450645</v>
+        <v>-0.260047996018382</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1293,17 +1293,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.225045530497818</v>
+        <v>0.110335680959923</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0943396226415094</v>
+        <v>0.0925925925925926</v>
       </c>
       <c r="H10" t="n">
-        <v>0.69811320754717</v>
+        <v>0.685185185185185</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -1312,16 +1312,16 @@
         <v>0.42</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0284532397214321</v>
+        <v>0.0415475246890051</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0277089364441214</v>
+        <v>-0.010918096922403</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0511713092023916</v>
+        <v>0.106230561284845</v>
       </c>
       <c r="N10" t="n">
-        <v>6.77458088605527</v>
+        <v>9.89226778309644</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1373,46 +1373,46 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.804123883345279</v>
+        <v>0.002628382223813</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0566037735849057</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.528301886792453</v>
+        <v>0.87037037037037</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>9</v>
+        <v>1.29</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.413517637568837</v>
+        <v>0.164527027027027</v>
       </c>
       <c r="L11" t="n">
-        <v>-2.2818720493088</v>
+        <v>0.0722954880496792</v>
       </c>
       <c r="M11" t="n">
-        <v>0.151219754525393</v>
+        <v>0.254704022918368</v>
       </c>
       <c r="N11" t="n">
-        <v>-4.59464041743152</v>
+        <v>12.7540331028703</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.605877594904153</v>
+        <v>0.0017646835519445</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8301886792452829</v>
+        <v>0.907407407407407</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1.29</v>
+        <v>0.138</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0208608388819249</v>
+        <v>0.0213123742454728</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.112019986938907</v>
+        <v>0.0100815224915003</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0961996110194713</v>
+        <v>0.0331159101459821</v>
       </c>
       <c r="N12" t="n">
-        <v>-1.61711929317247</v>
+        <v>15.4437494532412</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1542,97 +1542,6 @@
         </is>
       </c>
       <c r="W12" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Kaitoke at Vector Gas Line</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>5</v>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>0.853372995362716</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.924528301886792</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.141</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-0.0080818896367122</v>
-      </c>
-      <c r="L13" t="n">
-        <v>-0.0225716509583639</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.0050432745657398</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-5.73183662178176</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Likely improving</t>
-        </is>
-      </c>
-      <c r="Q13" t="n">
-        <v>1773468</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5573594</v>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>Whanganui District</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>Kaitoke Lakes</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>West_4</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
         <is>
           <t>g/m3</t>
         </is>

--- a/trend_results/Rivers/KaitokeatVectorGasLine_807b3eac70.xlsx
+++ b/trend_results/Rivers/KaitokeatVectorGasLine_807b3eac70.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="55">
   <si>
     <t>site name</t>
   </si>
@@ -124,28 +124,37 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on two censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
     <t>Unlikely improving</t>
   </si>
   <si>
-    <t>Likely increasing</t>
-  </si>
-  <si>
     <t>Very likely improving</t>
   </si>
   <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>Extremely unlikely increasing</t>
   </si>
   <si>
     <t>Whanganui District</t>
@@ -527,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,37 +630,37 @@
         <v>35</v>
       </c>
       <c r="F2">
-        <v>0.138093282934764</v>
+        <v>0.09599846748259699</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.827586206896552</v>
+        <v>0.892857142857143</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.26</v>
+        <v>0.255</v>
       </c>
       <c r="K2">
-        <v>-0.0199046321525886</v>
+        <v>-0.0242668595936043</v>
       </c>
       <c r="L2">
-        <v>-0.0492410937500995</v>
+        <v>-0.0600468077256898</v>
       </c>
       <c r="M2">
-        <v>0.0100026636955602</v>
+        <v>0.009405943052348801</v>
       </c>
       <c r="N2">
-        <v>-7.6556277509956</v>
+        <v>-9.51641552690363</v>
       </c>
       <c r="O2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q2">
         <v>1773468</v>
@@ -660,19 +669,19 @@
         <v>5573594</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -692,13 +701,13 @@
         <v>35</v>
       </c>
       <c r="F3">
-        <v>0.714906112454826</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.944444444444444</v>
+        <v>0.925925925925926</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -707,22 +716,22 @@
         <v>9.49</v>
       </c>
       <c r="K3">
-        <v>0.058575061029067</v>
+        <v>0.0064055696661833</v>
       </c>
       <c r="L3">
-        <v>-0.132776270173852</v>
+        <v>-0.22468376632818</v>
       </c>
       <c r="M3">
-        <v>0.102789831370291</v>
+        <v>0.149349841594928</v>
       </c>
       <c r="N3">
-        <v>0.617229304837376</v>
+        <v>0.0674980997490339</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q3">
         <v>1773468</v>
@@ -731,19 +740,19 @@
         <v>5573594</v>
       </c>
       <c r="S3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="U3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="V3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="W3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -763,7 +772,7 @@
         <v>35</v>
       </c>
       <c r="F4">
-        <v>0.25555805922537</v>
+        <v>0.2321872822917</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -775,25 +784,25 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0375</v>
+        <v>0.036</v>
       </c>
       <c r="K4">
-        <v>0.0011476826394344</v>
+        <v>0.0011995073891625</v>
       </c>
       <c r="L4">
-        <v>-0.0015333743789827</v>
+        <v>-0.001293985397546</v>
       </c>
       <c r="M4">
-        <v>0.0039443553892329</v>
+        <v>0.003992532084948</v>
       </c>
       <c r="N4">
-        <v>3.06048703849175</v>
+        <v>3.331964969896</v>
       </c>
       <c r="O4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Q4">
         <v>1773468</v>
@@ -802,19 +811,19 @@
         <v>5573594</v>
       </c>
       <c r="S4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="U4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="V4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="W4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -834,37 +843,37 @@
         <v>35</v>
       </c>
       <c r="F5">
-        <v>0.938354201000995</v>
+        <v>0.916034442870615</v>
       </c>
       <c r="G5">
         <v>0.0185185185185185</v>
       </c>
       <c r="H5">
-        <v>0.833333333333333</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>250</v>
+        <v>211.8</v>
       </c>
       <c r="K5">
-        <v>-35.9677796658383</v>
+        <v>-31.8982218021377</v>
       </c>
       <c r="L5">
-        <v>-56.2739561081485</v>
+        <v>-59.8110542984267</v>
       </c>
       <c r="M5">
-        <v>-4.17558282940239</v>
+        <v>1.31990011849361</v>
       </c>
       <c r="N5">
-        <v>-14.3871118663353</v>
+        <v>-15.0605390944937</v>
       </c>
       <c r="O5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q5">
         <v>1773468</v>
@@ -873,19 +882,19 @@
         <v>5573594</v>
       </c>
       <c r="S5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="U5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="V5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="W5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -902,40 +911,40 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6">
-        <v>0.0346490789736528</v>
+        <v>0.442593374078042</v>
       </c>
       <c r="G6">
         <v>0.351851851851852</v>
       </c>
       <c r="H6">
-        <v>0.7037037037037041</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I6">
         <v>4</v>
       </c>
       <c r="J6">
-        <v>0.0175021742902809</v>
+        <v>0.0155659772143745</v>
       </c>
       <c r="K6">
-        <v>0.0021980669161238</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>-0.0011803209804725</v>
       </c>
       <c r="M6">
-        <v>0.0055731148768861</v>
+        <v>0.002072134945782</v>
       </c>
       <c r="N6">
-        <v>12.5588220050147</v>
+        <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q6">
         <v>1773468</v>
@@ -944,19 +953,19 @@
         <v>5573594</v>
       </c>
       <c r="S6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="U6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="V6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="W6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -973,16 +982,16 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F7">
-        <v>0.0347981289882045</v>
+        <v>0.629267693683512</v>
       </c>
       <c r="G7">
         <v>0.12962962962963</v>
       </c>
       <c r="H7">
-        <v>0.592592592592593</v>
+        <v>0.574074074074074</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -991,22 +1000,22 @@
         <v>0.0135</v>
       </c>
       <c r="K7">
-        <v>0.001126289536387</v>
+        <v>-0.0002498290013679</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>-0.0015051510989011</v>
       </c>
       <c r="M7">
-        <v>0.0025038627113964</v>
+        <v>0.0009876579062009</v>
       </c>
       <c r="N7">
-        <v>8.34288545471856</v>
+        <v>-1.85058519531844</v>
       </c>
       <c r="O7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q7">
         <v>1773468</v>
@@ -1015,19 +1024,19 @@
         <v>5573594</v>
       </c>
       <c r="S7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="U7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="V7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="W7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1044,40 +1053,40 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8">
-        <v>0.144243731661745</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G8">
-        <v>0.0925925925925926</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="H8">
-        <v>0.907407407407407</v>
+        <v>0.87037037037037</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.353</v>
+        <v>0.329</v>
       </c>
       <c r="K8">
-        <v>0.0249506188613413</v>
+        <v>-0.0308555975274725</v>
       </c>
       <c r="L8">
-        <v>-0.0297835040349404</v>
+        <v>-0.0905370379750168</v>
       </c>
       <c r="M8">
-        <v>0.0719089531463827</v>
+        <v>0.0198160168477326</v>
       </c>
       <c r="N8">
-        <v>7.06816398338279</v>
+        <v>-9.3786010721801</v>
       </c>
       <c r="O8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="Q8">
         <v>1773468</v>
@@ -1086,19 +1095,19 @@
         <v>5573594</v>
       </c>
       <c r="S8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="U8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="V8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="W8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1112,19 +1121,19 @@
         <v>5</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
         <v>35</v>
       </c>
       <c r="F9">
-        <v>0.372395520847622</v>
+        <v>0.303295904434834</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.759259259259259</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1133,22 +1142,22 @@
         <v>7.705</v>
       </c>
       <c r="K9">
-        <v>-0.0200366980932163</v>
+        <v>-0.0195669642857144</v>
       </c>
       <c r="L9">
-        <v>-0.07189080221147209</v>
+        <v>-0.0632412013905792</v>
       </c>
       <c r="M9">
-        <v>0.0300249850375088</v>
+        <v>0.0384837012876838</v>
       </c>
       <c r="N9">
-        <v>-0.260047996018382</v>
+        <v>-0.253951515713361</v>
       </c>
       <c r="O9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q9">
         <v>1773468</v>
@@ -1157,16 +1166,16 @@
         <v>5573594</v>
       </c>
       <c r="S9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="U9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="V9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1183,13 +1192,13 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10">
-        <v>0.110335680959923</v>
+        <v>0.743890219326887</v>
       </c>
       <c r="G10">
-        <v>0.0925925925925926</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="H10">
         <v>0.685185185185185</v>
@@ -1198,25 +1207,25 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.42</v>
+        <v>0.385</v>
       </c>
       <c r="K10">
-        <v>0.0415475246890051</v>
+        <v>-0.0198793541364296</v>
       </c>
       <c r="L10">
-        <v>-0.010918096922403</v>
+        <v>-0.0962598273966719</v>
       </c>
       <c r="M10">
-        <v>0.106230561284845</v>
+        <v>0.02991715015072</v>
       </c>
       <c r="N10">
-        <v>9.89226778309644</v>
+        <v>-5.16346860686483</v>
       </c>
       <c r="O10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P10" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="Q10">
         <v>1773468</v>
@@ -1225,19 +1234,19 @@
         <v>5573594</v>
       </c>
       <c r="S10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="U10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="V10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="W10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1257,34 +1266,34 @@
         <v>35</v>
       </c>
       <c r="F11">
-        <v>0.002628382223813</v>
+        <v>0.623014135876419</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.87037037037037</v>
+        <v>0.851851851851852</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.29</v>
+        <v>1.235</v>
       </c>
       <c r="K11">
-        <v>0.164527027027027</v>
+        <v>-0.0260892857142857</v>
       </c>
       <c r="L11">
-        <v>0.0722954880496792</v>
+        <v>-0.112643978989037</v>
       </c>
       <c r="M11">
-        <v>0.254704022918368</v>
+        <v>0.0833261948731493</v>
       </c>
       <c r="N11">
-        <v>12.7540331028703</v>
+        <v>-2.11249277038751</v>
       </c>
       <c r="O11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P11" t="s">
         <v>43</v>
@@ -1296,19 +1305,19 @@
         <v>5573594</v>
       </c>
       <c r="S11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="U11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="V11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="W11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1328,7 +1337,7 @@
         <v>35</v>
       </c>
       <c r="F12">
-        <v>0.0017646835519445</v>
+        <v>0.408539070501264</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1340,22 +1349,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.138</v>
+        <v>0.1375</v>
       </c>
       <c r="K12">
-        <v>0.0213123742454728</v>
+        <v>0.0021318093385214</v>
       </c>
       <c r="L12">
-        <v>0.0100815224915003</v>
+        <v>-0.008377312153242601</v>
       </c>
       <c r="M12">
-        <v>0.0331159101459821</v>
+        <v>0.0150610292326633</v>
       </c>
       <c r="N12">
-        <v>15.4437494532412</v>
+        <v>1.55040679165193</v>
       </c>
       <c r="O12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P12" t="s">
         <v>43</v>
@@ -1367,19 +1376,655 @@
         <v>5573594</v>
       </c>
       <c r="S12" t="s">
+        <v>47</v>
+      </c>
+      <c r="T12" t="s">
+        <v>48</v>
+      </c>
+      <c r="U12" t="s">
+        <v>49</v>
+      </c>
+      <c r="V12" t="s">
+        <v>50</v>
+      </c>
+      <c r="W12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0.897727272727273</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>9.49</v>
+      </c>
+      <c r="K13">
+        <v>-0.00113395182334</v>
+      </c>
+      <c r="L13">
+        <v>-0.0989289401759355</v>
+      </c>
+      <c r="M13">
+        <v>0.0615402640257535</v>
+      </c>
+      <c r="N13">
+        <v>-0.0119489127854592</v>
+      </c>
+      <c r="O13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q13">
+        <v>1773468</v>
+      </c>
+      <c r="R13">
+        <v>5573594</v>
+      </c>
+      <c r="S13" t="s">
+        <v>47</v>
+      </c>
+      <c r="T13" t="s">
+        <v>48</v>
+      </c>
+      <c r="U13" t="s">
+        <v>49</v>
+      </c>
+      <c r="V13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14">
+        <v>0.841538477633394</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0.602272727272727</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.0395</v>
+      </c>
+      <c r="K14">
+        <v>-0.0010038939348918</v>
+      </c>
+      <c r="L14">
+        <v>-0.0026265944197663</v>
+      </c>
+      <c r="M14">
+        <v>0.0003703056172595</v>
+      </c>
+      <c r="N14">
+        <v>-2.54150363263765</v>
+      </c>
+      <c r="O14" t="s">
+        <v>38</v>
+      </c>
+      <c r="P14" t="s">
         <v>44</v>
       </c>
-      <c r="T12" t="s">
-        <v>45</v>
-      </c>
-      <c r="U12" t="s">
+      <c r="Q14">
+        <v>1773468</v>
+      </c>
+      <c r="R14">
+        <v>5573594</v>
+      </c>
+      <c r="S14" t="s">
+        <v>47</v>
+      </c>
+      <c r="T14" t="s">
+        <v>48</v>
+      </c>
+      <c r="U14" t="s">
+        <v>49</v>
+      </c>
+      <c r="V14" t="s">
+        <v>50</v>
+      </c>
+      <c r="W14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15">
+        <v>0.465010481964198</v>
+      </c>
+      <c r="G15">
+        <v>0.379310344827586</v>
+      </c>
+      <c r="H15">
+        <v>0.689655172413793</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
+      <c r="J15">
+        <v>0.0154320441937845</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>-0.0009412309444819</v>
+      </c>
+      <c r="M15">
+        <v>2.55313231634759E-05</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q15">
+        <v>1773468</v>
+      </c>
+      <c r="R15">
+        <v>5573594</v>
+      </c>
+      <c r="S15" t="s">
+        <v>47</v>
+      </c>
+      <c r="T15" t="s">
+        <v>48</v>
+      </c>
+      <c r="U15" t="s">
+        <v>49</v>
+      </c>
+      <c r="V15" t="s">
+        <v>50</v>
+      </c>
+      <c r="W15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16">
+        <v>0.217237904412155</v>
+      </c>
+      <c r="G16">
+        <v>0.159090909090909</v>
+      </c>
+      <c r="H16">
+        <v>0.420454545454545</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0.013</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>-1.5968171923322E-05</v>
+      </c>
+      <c r="M16">
+        <v>0.0007494870041039</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
+        <v>38</v>
+      </c>
+      <c r="P16" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q16">
+        <v>1773468</v>
+      </c>
+      <c r="R16">
+        <v>5573594</v>
+      </c>
+      <c r="S16" t="s">
+        <v>47</v>
+      </c>
+      <c r="T16" t="s">
+        <v>48</v>
+      </c>
+      <c r="U16" t="s">
+        <v>49</v>
+      </c>
+      <c r="V16" t="s">
+        <v>50</v>
+      </c>
+      <c r="W16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17">
+        <v>0.467408411969854</v>
+      </c>
+      <c r="G17">
+        <v>0.136363636363636</v>
+      </c>
+      <c r="H17">
+        <v>0.818181818181818</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0.3365</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>-0.0223130569781091</v>
+      </c>
+      <c r="M17">
+        <v>0.0165458241288747</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>38</v>
+      </c>
+      <c r="P17" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q17">
+        <v>1773468</v>
+      </c>
+      <c r="R17">
+        <v>5573594</v>
+      </c>
+      <c r="S17" t="s">
+        <v>47</v>
+      </c>
+      <c r="T17" t="s">
+        <v>48</v>
+      </c>
+      <c r="U17" t="s">
+        <v>49</v>
+      </c>
+      <c r="V17" t="s">
+        <v>50</v>
+      </c>
+      <c r="W17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18">
+        <v>0.015119510508074</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0.727272727272727</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>7.795</v>
+      </c>
+      <c r="K18">
+        <v>-0.0329950925010591</v>
+      </c>
+      <c r="L18">
+        <v>-0.0547808693861361</v>
+      </c>
+      <c r="M18">
+        <v>-0.0065947622522913</v>
+      </c>
+      <c r="N18">
+        <v>-0.423285343182285</v>
+      </c>
+      <c r="O18" t="s">
+        <v>38</v>
+      </c>
+      <c r="P18" t="s">
         <v>46</v>
       </c>
-      <c r="V12" t="s">
+      <c r="Q18">
+        <v>1773468</v>
+      </c>
+      <c r="R18">
+        <v>5573594</v>
+      </c>
+      <c r="S18" t="s">
         <v>47</v>
       </c>
-      <c r="W12" t="s">
+      <c r="T18" t="s">
+        <v>48</v>
+      </c>
+      <c r="U18" t="s">
         <v>49</v>
+      </c>
+      <c r="V18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19">
+        <v>0.418793869442986</v>
+      </c>
+      <c r="G19">
+        <v>0.136363636363636</v>
+      </c>
+      <c r="H19">
+        <v>0.602272727272727</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0.385</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>-0.0197577333607098</v>
+      </c>
+      <c r="M19">
+        <v>0.0235511003155757</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P19" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q19">
+        <v>1773468</v>
+      </c>
+      <c r="R19">
+        <v>5573594</v>
+      </c>
+      <c r="S19" t="s">
+        <v>47</v>
+      </c>
+      <c r="T19" t="s">
+        <v>48</v>
+      </c>
+      <c r="U19" t="s">
+        <v>49</v>
+      </c>
+      <c r="V19" t="s">
+        <v>50</v>
+      </c>
+      <c r="W19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20">
+        <v>0.810570345223288</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0.795454545454545</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1.255</v>
+      </c>
+      <c r="K20">
+        <v>-0.0134905685626992</v>
+      </c>
+      <c r="L20">
+        <v>-0.0528630206361725</v>
+      </c>
+      <c r="M20">
+        <v>0.0270887004747275</v>
+      </c>
+      <c r="N20">
+        <v>-1.07494570220711</v>
+      </c>
+      <c r="O20" t="s">
+        <v>38</v>
+      </c>
+      <c r="P20" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q20">
+        <v>1773468</v>
+      </c>
+      <c r="R20">
+        <v>5573594</v>
+      </c>
+      <c r="S20" t="s">
+        <v>47</v>
+      </c>
+      <c r="T20" t="s">
+        <v>48</v>
+      </c>
+      <c r="U20" t="s">
+        <v>49</v>
+      </c>
+      <c r="V20" t="s">
+        <v>50</v>
+      </c>
+      <c r="W20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21">
+        <v>0.742923919613054</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0.897727272727273</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.138</v>
+      </c>
+      <c r="K21">
+        <v>-0.0023857119087691</v>
+      </c>
+      <c r="L21">
+        <v>-0.008050934934685099</v>
+      </c>
+      <c r="M21">
+        <v>0.0034088481541806</v>
+      </c>
+      <c r="N21">
+        <v>-1.72877674548492</v>
+      </c>
+      <c r="O21" t="s">
+        <v>38</v>
+      </c>
+      <c r="P21" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q21">
+        <v>1773468</v>
+      </c>
+      <c r="R21">
+        <v>5573594</v>
+      </c>
+      <c r="S21" t="s">
+        <v>47</v>
+      </c>
+      <c r="T21" t="s">
+        <v>48</v>
+      </c>
+      <c r="U21" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" t="s">
+        <v>50</v>
+      </c>
+      <c r="W21" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
